--- a/metadata_example.xlsx
+++ b/metadata_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbontyes/Repos/GitHub/clinical-content-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA72E25-D525-2048-9394-EFE6703CA851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E4248-640A-3E4B-8185-07C60AC8AF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Workflow" sheetId="1" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'F06-PHQ-9'!$A$2:$AM$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">OptionSets!$A$2:$AH$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -14312,7 +14312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -14338,15 +14338,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -14354,7 +14345,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14474,9 +14465,11 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -14486,9 +14479,6 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14496,27 +14486,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -14592,13 +14562,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:D19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Field" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Guidance" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Accepted" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Not accepted" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Field" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Guidance" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Accepted" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Not accepted" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -41714,11 +41684,11 @@
   </sheetPr>
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -41904,7 +41874,7 @@
       <c r="B3" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="53">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -41917,18 +41887,18 @@
       <c r="H3" t="s">
         <v>315</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="53"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="52"/>
       <c r="U3" t="str">
         <f>IF(OR(M3&lt;&gt;"", S3&lt;&gt;"", X3&lt;&gt;""), "Found", "Missing")</f>
         <v>Found</v>
@@ -41939,7 +41909,7 @@
       <c r="W3" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="51" t="s">
         <v>316</v>
       </c>
       <c r="AI3" t="s">
@@ -41974,18 +41944,18 @@
       <c r="H4" t="s">
         <v>315</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="53"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="52"/>
       <c r="U4" t="str">
         <f t="shared" ref="U4:U13" si="1">IF(OR(M4&lt;&gt;"", S4&lt;&gt;"", X4&lt;&gt;""), "Found", "Missing")</f>
         <v>Found</v>
@@ -41996,7 +41966,7 @@
       <c r="W4" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="52" t="s">
+      <c r="X4" s="51" t="s">
         <v>319</v>
       </c>
       <c r="AI4" t="s">
@@ -42031,18 +42001,18 @@
       <c r="H5" t="s">
         <v>315</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="53"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="52"/>
       <c r="U5" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42053,7 +42023,7 @@
       <c r="W5" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="X5" s="51" t="s">
         <v>322</v>
       </c>
       <c r="AI5" t="s">
@@ -42088,18 +42058,18 @@
       <c r="H6" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="53"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="52"/>
       <c r="U6" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42110,7 +42080,7 @@
       <c r="W6" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="52" t="s">
+      <c r="X6" s="51" t="s">
         <v>325</v>
       </c>
       <c r="AI6" t="s">
@@ -42145,18 +42115,18 @@
       <c r="H7" t="s">
         <v>315</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
       <c r="U7" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42167,7 +42137,7 @@
       <c r="W7" t="s">
         <v>56</v>
       </c>
-      <c r="X7" s="52" t="s">
+      <c r="X7" s="51" t="s">
         <v>328</v>
       </c>
       <c r="AI7" t="s">
@@ -42203,17 +42173,17 @@
         <v>315</v>
       </c>
       <c r="I8" s="40"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="53"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
       <c r="U8" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42224,7 +42194,7 @@
       <c r="W8" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="52" t="s">
+      <c r="X8" s="51" t="s">
         <v>331</v>
       </c>
       <c r="AI8" t="s">
@@ -42260,17 +42230,17 @@
         <v>315</v>
       </c>
       <c r="I9" s="40"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
       <c r="U9" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42281,7 +42251,7 @@
       <c r="W9" t="s">
         <v>56</v>
       </c>
-      <c r="X9" s="52" t="s">
+      <c r="X9" s="51" t="s">
         <v>334</v>
       </c>
       <c r="AI9" t="s">
@@ -42317,17 +42287,17 @@
         <v>315</v>
       </c>
       <c r="I10" s="40"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="53"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42338,7 +42308,7 @@
       <c r="W10" t="s">
         <v>56</v>
       </c>
-      <c r="X10" s="52" t="s">
+      <c r="X10" s="51" t="s">
         <v>337</v>
       </c>
       <c r="AI10" t="s">
@@ -42374,17 +42344,17 @@
         <v>315</v>
       </c>
       <c r="I11" s="40"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="53"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="52"/>
       <c r="U11" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42395,7 +42365,7 @@
       <c r="W11" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="52" t="s">
+      <c r="X11" s="51" t="s">
         <v>340</v>
       </c>
       <c r="AI11" t="s">
@@ -42427,18 +42397,18 @@
         <v>17</v>
       </c>
       <c r="G12" s="38"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="53"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
       <c r="U12" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42501,17 +42471,17 @@
         <v>346</v>
       </c>
       <c r="I13" s="40"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="40"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
       <c r="U13" t="str">
         <f t="shared" si="1"/>
         <v>Found</v>
@@ -42522,7 +42492,7 @@
       <c r="W13" t="s">
         <v>56</v>
       </c>
-      <c r="X13" s="52" t="s">
+      <c r="X13" s="51" t="s">
         <v>312</v>
       </c>
       <c r="Y13" s="30"/>
@@ -42537,10 +42507,10 @@
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Missing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Found"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42563,14 +42533,14 @@
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -42746,6 +42716,8 @@
       <c r="E3" t="s">
         <v>368</v>
       </c>
+      <c r="G3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="S3" t="str">
         <f>IF(OR(K3&lt;&gt;"", Q3&lt;&gt;""), "Found", "Missing")</f>
         <v>Missing</v>
@@ -42779,6 +42751,8 @@
       <c r="E4" t="s">
         <v>369</v>
       </c>
+      <c r="G4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="S4" t="str">
         <f t="shared" ref="S4:S11" si="1">IF(OR(K4&lt;&gt;"", Q4&lt;&gt;""), "Found", "Missing")</f>
         <v>Missing</v>
@@ -42812,6 +42786,8 @@
       <c r="E5" t="s">
         <v>370</v>
       </c>
+      <c r="G5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="S5" t="str">
         <f t="shared" si="1"/>
         <v>Missing</v>
@@ -42845,6 +42821,8 @@
       <c r="E6" t="s">
         <v>371</v>
       </c>
+      <c r="G6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="S6" t="str">
         <f t="shared" si="1"/>
         <v>Missing</v>
@@ -42878,6 +42856,8 @@
       <c r="E7" t="s">
         <v>372</v>
       </c>
+      <c r="G7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="S7" t="str">
         <f t="shared" si="1"/>
         <v>Missing</v>
@@ -42914,6 +42894,8 @@
       <c r="F8" t="s">
         <v>374</v>
       </c>
+      <c r="G8" s="40"/>
+      <c r="M8" s="40"/>
       <c r="S8" t="str">
         <f t="shared" si="1"/>
         <v>Missing</v>
@@ -42948,6 +42930,8 @@
       <c r="F9" t="s">
         <v>378</v>
       </c>
+      <c r="G9" s="40"/>
+      <c r="M9" s="40"/>
       <c r="S9" t="str">
         <f t="shared" si="1"/>
         <v>Missing</v>
@@ -42982,6 +42966,8 @@
       <c r="F10" t="s">
         <v>382</v>
       </c>
+      <c r="G10" s="40"/>
+      <c r="M10" s="40"/>
       <c r="S10" t="str">
         <f t="shared" si="1"/>
         <v>Missing</v>
@@ -43016,6 +43002,8 @@
       <c r="F11" t="s">
         <v>386</v>
       </c>
+      <c r="G11" s="40"/>
+      <c r="M11" s="40"/>
       <c r="S11" t="str">
         <f t="shared" si="1"/>
         <v>Missing</v>
@@ -43032,6 +43020,14 @@
       <c r="AG11" t="s">
         <v>388</v>
       </c>
+    </row>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="40"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AH11" xr:uid="{00000000-0009-0000-0000-000015000000}"/>
@@ -43039,15 +43035,7 @@
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="G1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="S1:S2 S12:S1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Missing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Found"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S11">
+  <conditionalFormatting sqref="S1:S1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Missing"</formula>
     </cfRule>

--- a/metadata_example.xlsx
+++ b/metadata_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbontyes/Repos/GitHub/clinical-content-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5AEFFB-AEF3-1B4E-8B25-AB45DB7E7FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCD7CB-8CF3-D943-B2AE-2F82A36CBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Workflow" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41612,11 +41612,11 @@
   </sheetPr>
   <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3:U13"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -42461,12 +42461,12 @@
   </sheetPr>
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="G8:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>

--- a/metadata_example.xlsx
+++ b/metadata_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbontyes/Repos/GitHub/clinical-content-tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajalodora/clinical-content-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FCFBAA-B396-914A-8162-1AC24A559AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0179AD61-39C3-E74F-9C7B-39EF11853D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Workflow" sheetId="1" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <sheet name="Drugs" sheetId="28" state="hidden" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'F06-PHQ-9'!$A$2:$AN$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'F06-PHQ-9'!$A$2:$AO$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">OptionSets!$A$2:$AH$6</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7142" uniqueCount="4658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7154" uniqueCount="4661">
   <si>
     <t>Step</t>
   </si>
@@ -14053,6 +14053,15 @@
   </si>
   <si>
     <t>LECHE TERAPÉUTICA, F75, polvo, 400g</t>
+  </si>
+  <si>
+    <t>Rendering</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>numeric</t>
   </si>
 </sst>
 </file>
@@ -14458,6 +14467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -14467,7 +14477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -41596,13 +41605,13 @@
     <tabColor rgb="FFFFC000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -41612,58 +41621,58 @@
     <col min="3" max="3" width="6.33203125" style="36" customWidth="1"/>
     <col min="4" max="4" width="54.1640625" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="7.33203125" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="28.5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="22" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="17.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="21" width="18.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="18.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="15.5" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.5" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="30" width="4.5" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="6.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="45.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="14.33203125" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="35" width="18.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="19.5" customWidth="1"/>
-    <col min="38" max="38" width="18.6640625" customWidth="1"/>
-    <col min="39" max="39" width="45" customWidth="1"/>
-    <col min="40" max="40" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="7.33203125" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="22" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="15" width="22" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="17.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="22" width="18.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="18.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15.5" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.5" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="31" width="4.5" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="6.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="45.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="14.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="36" width="18.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="11" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="19.5" customWidth="1"/>
+    <col min="39" max="39" width="18.6640625" customWidth="1"/>
+    <col min="40" max="40" width="45" customWidth="1"/>
+    <col min="41" max="41" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="54" t="s">
+    <row r="1" spans="1:41" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="54" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
       <c r="U1" s="56"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="57" t="s">
+      <c r="V1" s="57"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-    </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+    </row>
+    <row r="2" spans="1:41" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>232</v>
       </c>
@@ -41683,109 +41692,112 @@
         <v>237</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>4658</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="L2" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="M2" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="N2" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="O2" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="P2" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="Q2" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="R2" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="S2" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="T2" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="U2" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="V2" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -41795,7 +41807,7 @@
       <c r="C3" s="53">
         <v>1</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="54" t="s">
         <v>274</v>
       </c>
       <c r="E3" t="s">
@@ -41804,45 +41816,48 @@
       <c r="F3" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" t="s">
         <v>278</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="51"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="51"/>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="40"/>
       <c r="R3" s="51"/>
       <c r="S3" s="51"/>
       <c r="T3" s="51"/>
-      <c r="U3" s="52"/>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V13" si="0">IF(OR(N3&lt;&gt;"", T3&lt;&gt;"", Y3&lt;&gt;""), "Found", "Missing")</f>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W13" si="0">IF(OR(O3&lt;&gt;"", U3&lt;&gt;"", Z3&lt;&gt;""), "Found", "Missing")</f>
         <v>Missing</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>279</v>
       </c>
-      <c r="Y3" s="51"/>
-      <c r="AJ3" t="s">
+      <c r="Z3" s="51"/>
+      <c r="AK3" t="s">
         <v>280</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>281</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>282</v>
       </c>
-      <c r="AM3" s="30"/>
-    </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN3" s="30"/>
+    </row>
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>272</v>
       </c>
@@ -41853,7 +41868,7 @@
         <f t="shared" ref="C4:C13" ca="1" si="1">OFFSET(C4,-1,0)+IF(OR(D4="",D4=OFFSET(D4,-1,0)),0,1)</f>
         <v>2</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="54" t="s">
         <v>283</v>
       </c>
       <c r="E4" t="s">
@@ -41862,45 +41877,48 @@
       <c r="F4" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" t="s">
         <v>278</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="51"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51"/>
       <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="40"/>
       <c r="R4" s="51"/>
       <c r="S4" s="51"/>
       <c r="T4" s="51"/>
-      <c r="U4" s="52"/>
-      <c r="V4" t="str">
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>279</v>
       </c>
-      <c r="Y4" s="51"/>
-      <c r="AJ4" t="s">
+      <c r="Z4" s="51"/>
+      <c r="AK4" t="s">
         <v>280</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>286</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>282</v>
       </c>
-      <c r="AM4" s="30"/>
-    </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN4" s="30"/>
+    </row>
+    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -41911,7 +41929,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="54" t="s">
         <v>287</v>
       </c>
       <c r="E5" t="s">
@@ -41920,45 +41938,48 @@
       <c r="F5" t="s">
         <v>289</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" t="s">
+      <c r="I5" s="38"/>
+      <c r="J5" t="s">
         <v>278</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="51"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
       <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="51"/>
       <c r="S5" s="51"/>
       <c r="T5" s="51"/>
-      <c r="U5" s="52"/>
-      <c r="V5" t="str">
+      <c r="U5" s="51"/>
+      <c r="V5" s="52"/>
+      <c r="W5" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>279</v>
       </c>
-      <c r="Y5" s="51"/>
-      <c r="AJ5" t="s">
+      <c r="Z5" s="51"/>
+      <c r="AK5" t="s">
         <v>280</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>290</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>282</v>
       </c>
-      <c r="AM5" s="30"/>
-    </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN5" s="30"/>
+    </row>
+    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -41969,7 +41990,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="54" t="s">
         <v>291</v>
       </c>
       <c r="E6" t="s">
@@ -41978,45 +41999,48 @@
       <c r="F6" t="s">
         <v>292</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" t="s">
         <v>278</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="51"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="51"/>
       <c r="M6" s="51"/>
       <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="40"/>
       <c r="R6" s="51"/>
       <c r="S6" s="51"/>
       <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
-      <c r="V6" t="str">
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
+      <c r="W6" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>279</v>
       </c>
-      <c r="Y6" s="51"/>
-      <c r="AJ6" t="s">
+      <c r="Z6" s="51"/>
+      <c r="AK6" t="s">
         <v>280</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>293</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>282</v>
       </c>
-      <c r="AM6" s="30"/>
-    </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN6" s="30"/>
+    </row>
+    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>272</v>
       </c>
@@ -42027,7 +42051,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="54" t="s">
         <v>294</v>
       </c>
       <c r="E7" t="s">
@@ -42036,45 +42060,48 @@
       <c r="F7" t="s">
         <v>296</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" t="s">
         <v>278</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="51"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="51"/>
       <c r="S7" s="51"/>
       <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-      <c r="V7" t="str">
+      <c r="U7" s="51"/>
+      <c r="V7" s="52"/>
+      <c r="W7" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>279</v>
       </c>
-      <c r="Y7" s="51"/>
-      <c r="AJ7" t="s">
+      <c r="Z7" s="51"/>
+      <c r="AK7" t="s">
         <v>280</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>297</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>282</v>
       </c>
-      <c r="AM7" s="30"/>
-    </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN7" s="30"/>
+    </row>
+    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -42085,7 +42112,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="54" t="s">
         <v>298</v>
       </c>
       <c r="E8" t="s">
@@ -42094,45 +42121,48 @@
       <c r="F8" t="s">
         <v>300</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" t="s">
         <v>278</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="51"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="40"/>
       <c r="R8" s="51"/>
       <c r="S8" s="51"/>
       <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" t="str">
+      <c r="U8" s="51"/>
+      <c r="V8" s="52"/>
+      <c r="W8" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>279</v>
       </c>
-      <c r="Y8" s="51"/>
-      <c r="AJ8" t="s">
+      <c r="Z8" s="51"/>
+      <c r="AK8" t="s">
         <v>280</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>301</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>282</v>
       </c>
-      <c r="AM8" s="30"/>
-    </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN8" s="30"/>
+    </row>
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>272</v>
       </c>
@@ -42143,7 +42173,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="54" t="s">
         <v>302</v>
       </c>
       <c r="E9" t="s">
@@ -42152,45 +42182,48 @@
       <c r="F9" t="s">
         <v>304</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" t="s">
+      <c r="I9" s="38"/>
+      <c r="J9" t="s">
         <v>278</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="51"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="51"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="51"/>
       <c r="S9" s="51"/>
       <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
-      <c r="V9" t="str">
+      <c r="U9" s="51"/>
+      <c r="V9" s="52"/>
+      <c r="W9" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>279</v>
       </c>
-      <c r="Y9" s="51"/>
-      <c r="AJ9" t="s">
+      <c r="Z9" s="51"/>
+      <c r="AK9" t="s">
         <v>280</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>305</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>282</v>
       </c>
-      <c r="AM9" s="30"/>
-    </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN9" s="30"/>
+    </row>
+    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>272</v>
       </c>
@@ -42201,7 +42234,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="54" t="s">
         <v>306</v>
       </c>
       <c r="E10" t="s">
@@ -42210,45 +42243,48 @@
       <c r="F10" t="s">
         <v>308</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" t="s">
         <v>278</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="51"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
       <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="51"/>
       <c r="S10" s="51"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="52"/>
-      <c r="V10" t="str">
+      <c r="U10" s="51"/>
+      <c r="V10" s="52"/>
+      <c r="W10" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>279</v>
       </c>
-      <c r="Y10" s="51"/>
-      <c r="AJ10" t="s">
+      <c r="Z10" s="51"/>
+      <c r="AK10" t="s">
         <v>280</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>309</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>282</v>
       </c>
-      <c r="AM10" s="30"/>
-    </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN10" s="30"/>
+    </row>
+    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -42259,7 +42295,7 @@
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="54" t="s">
         <v>310</v>
       </c>
       <c r="E11" t="s">
@@ -42268,45 +42304,48 @@
       <c r="F11" t="s">
         <v>312</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" t="s">
+        <v>4659</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" t="s">
+      <c r="I11" s="38"/>
+      <c r="J11" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="51"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
-      <c r="V11" t="str">
+      <c r="U11" s="51"/>
+      <c r="V11" s="52"/>
+      <c r="W11" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>279</v>
       </c>
-      <c r="Y11" s="51"/>
-      <c r="AJ11" t="s">
+      <c r="Z11" s="51"/>
+      <c r="AK11" t="s">
         <v>280</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>313</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>282</v>
       </c>
-      <c r="AM11" s="30"/>
-    </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AN11" s="30"/>
+    </row>
+    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>272</v>
       </c>
@@ -42317,60 +42356,63 @@
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="54" t="s">
         <v>314</v>
       </c>
       <c r="G12" t="s">
+        <v>4660</v>
+      </c>
+      <c r="H12" t="s">
         <v>315</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="51"/>
+      <c r="I12" s="38"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
       <c r="T12" s="51"/>
-      <c r="U12" s="52"/>
-      <c r="V12" t="str">
+      <c r="U12" s="51"/>
+      <c r="V12" s="52"/>
+      <c r="W12" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>279</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>316</v>
       </c>
-      <c r="AA12" s="30"/>
-      <c r="AC12">
+      <c r="AB12" s="30"/>
+      <c r="AD12">
         <v>0</v>
       </c>
-      <c r="AD12" s="39">
+      <c r="AE12" s="39">
         <v>27</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>317</v>
       </c>
-      <c r="AG12" s="30"/>
-      <c r="AJ12" t="s">
+      <c r="AH12" s="30"/>
+      <c r="AK12" t="s">
         <v>280</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>318</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>282</v>
       </c>
-      <c r="AM12" s="30" t="s">
+      <c r="AN12" s="30" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>272</v>
       </c>
@@ -42381,48 +42423,51 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" t="s">
+      <c r="I13" s="38"/>
+      <c r="J13" t="s">
         <v>320</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="51"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
       <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="52"/>
-      <c r="V13" t="str">
+      <c r="U13" s="51"/>
+      <c r="V13" s="52"/>
+      <c r="W13" t="str">
         <f t="shared" si="0"/>
         <v>Missing</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>279</v>
       </c>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="30"/>
+      <c r="Z13" s="51"/>
       <c r="AA13" s="30"/>
-      <c r="AG13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AH13" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AN2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A2:AO2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="K1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="V1:V1048576">
+  <conditionalFormatting sqref="W1:W1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Missing"</formula>
     </cfRule>
@@ -42431,7 +42476,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X13" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y13" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -42488,22 +42533,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="54" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="57"/>
       <c r="S1" s="46"/>
       <c r="T1" s="41" t="s">
         <v>231</v>
@@ -42627,7 +42672,7 @@
         <f t="shared" ref="D3:D6" ca="1" si="0">IF(OFFSET(A3,-1,0)&lt;&gt;A3,1,OFFSET(D3,-1,0)+1)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="54" t="s">
         <v>326</v>
       </c>
       <c r="G3" s="40"/>
@@ -42660,7 +42705,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="54" t="s">
         <v>330</v>
       </c>
       <c r="G4" s="40"/>
@@ -42693,7 +42738,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="54" t="s">
         <v>333</v>
       </c>
       <c r="G5" s="40"/>
@@ -42726,7 +42771,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="54" t="s">
         <v>336</v>
       </c>
       <c r="G6" s="40"/>

--- a/metadata_example.xlsx
+++ b/metadata_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajalodora/clinical-content-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0179AD61-39C3-E74F-9C7B-39EF11853D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC38EA-7550-3B48-B1DA-75F007BC5D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1700" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Workflow" sheetId="1" state="hidden" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7154" uniqueCount="4661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7156" uniqueCount="4663">
   <si>
     <t>Step</t>
   </si>
@@ -14062,6 +14062,12 @@
   </si>
   <si>
     <t>numeric</t>
+  </si>
+  <si>
+    <t>depressionSeverityScale</t>
+  </si>
+  <si>
+    <t>previous</t>
   </si>
 </sst>
 </file>
@@ -41608,10 +41614,10 @@
   <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -41637,7 +41643,7 @@
     <col min="27" max="27" width="15.5" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="9.5" customWidth="1" outlineLevel="1"/>
     <col min="29" max="31" width="4.5" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="6.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="255.83203125" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="33" max="33" width="45.6640625" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="14.33203125" customWidth="1" outlineLevel="1"/>
     <col min="35" max="36" width="18.6640625" customWidth="1" outlineLevel="1"/>
@@ -42450,14 +42456,19 @@
       <c r="V13" s="52"/>
       <c r="W13" t="str">
         <f t="shared" si="0"/>
-        <v>Missing</v>
+        <v>Found</v>
       </c>
       <c r="Y13" t="s">
         <v>279</v>
       </c>
-      <c r="Z13" s="51"/>
+      <c r="Z13" t="s">
+        <v>4661</v>
+      </c>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
+      <c r="AF13" t="s">
+        <v>4662</v>
+      </c>
       <c r="AH13" s="30"/>
     </row>
   </sheetData>
@@ -42828,7 +42839,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/metadata_example.xlsx
+++ b/metadata_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajalodora/clinical-content-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC38EA-7550-3B48-B1DA-75F007BC5D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A6D80C-691E-3F43-8D44-D7B0AAE64052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1700" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="1140" windowWidth="31080" windowHeight="19620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Workflow" sheetId="1" state="hidden" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7156" uniqueCount="4663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7158" uniqueCount="4664">
   <si>
     <t>Step</t>
   </si>
@@ -14067,14 +14067,17 @@
     <t>depressionSeverityScale</t>
   </si>
   <si>
-    <t>previous</t>
+    <t>ref:speakingSlowly</t>
+  </si>
+  <si>
+    <t>latest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14209,6 +14212,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFECC48D"/>
+      <name val="Menlo"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="18">
@@ -14348,7 +14357,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14483,6 +14492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -41614,10 +41624,10 @@
   <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -42334,12 +42344,17 @@
       <c r="V11" s="52"/>
       <c r="W11" t="str">
         <f t="shared" si="0"/>
-        <v>Missing</v>
+        <v>Found</v>
       </c>
       <c r="Y11" t="s">
         <v>279</v>
       </c>
-      <c r="Z11" s="51"/>
+      <c r="Z11" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>4662</v>
+      </c>
       <c r="AK11" t="s">
         <v>280</v>
       </c>
@@ -42467,7 +42482,7 @@
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
       <c r="AF13" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="AH13" s="30"/>
     </row>

--- a/metadata_example.xlsx
+++ b/metadata_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajalodora/clinical-content-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0179AD61-39C3-E74F-9C7B-39EF11853D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4292D4-DE2C-5440-AC75-CA741AAE31CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="33600" windowHeight="19320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="-19620" windowWidth="31080" windowHeight="19620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration Workflow" sheetId="1" state="hidden" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7154" uniqueCount="4661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7158" uniqueCount="4664">
   <si>
     <t>Step</t>
   </si>
@@ -14062,13 +14062,22 @@
   </si>
   <si>
     <t>numeric</t>
+  </si>
+  <si>
+    <t>depressionSeverityScale</t>
+  </si>
+  <si>
+    <t>ref:speakingSlowly</t>
+  </si>
+  <si>
+    <t>latest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14203,6 +14212,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFECC48D"/>
+      <name val="Menlo"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="18">
@@ -14342,7 +14357,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14468,6 +14483,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -41608,10 +41624,10 @@
   <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -41636,8 +41652,10 @@
     <col min="26" max="26" width="18.6640625" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="15.5" customWidth="1" outlineLevel="1"/>
     <col min="28" max="28" width="9.5" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="31" width="4.5" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="6.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="12.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="255.83203125" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="33" max="33" width="45.6640625" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="14.33203125" customWidth="1" outlineLevel="1"/>
     <col min="35" max="36" width="18.6640625" customWidth="1" outlineLevel="1"/>
@@ -41649,28 +41667,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="55" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="58"/>
       <c r="W1" s="46"/>
-      <c r="X1" s="58" t="s">
+      <c r="X1" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -42328,12 +42346,17 @@
       <c r="V11" s="52"/>
       <c r="W11" t="str">
         <f t="shared" si="0"/>
-        <v>Missing</v>
+        <v>Found</v>
       </c>
       <c r="Y11" t="s">
         <v>279</v>
       </c>
-      <c r="Z11" s="51"/>
+      <c r="Z11" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>4662</v>
+      </c>
       <c r="AK11" t="s">
         <v>280</v>
       </c>
@@ -42390,7 +42413,7 @@
       </c>
       <c r="AB12" s="30"/>
       <c r="AD12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="39">
         <v>27</v>
@@ -42450,14 +42473,19 @@
       <c r="V13" s="52"/>
       <c r="W13" t="str">
         <f t="shared" si="0"/>
-        <v>Missing</v>
+        <v>Found</v>
       </c>
       <c r="Y13" t="s">
         <v>279</v>
       </c>
-      <c r="Z13" s="51"/>
+      <c r="Z13" t="s">
+        <v>4661</v>
+      </c>
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
+      <c r="AF13" t="s">
+        <v>4663</v>
+      </c>
       <c r="AH13" s="30"/>
     </row>
   </sheetData>
@@ -42533,22 +42561,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="55" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="58"/>
       <c r="S1" s="46"/>
       <c r="T1" s="41" t="s">
         <v>231</v>
@@ -42828,7 +42856,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
